--- a/Data/CorrelationHourly.xlsx
+++ b/Data/CorrelationHourly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="164">
   <si>
     <t>E-RAB Stp SR, QCI8</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>Avg PDCP SDU Delay DL QCI5</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Unnamed: 188</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -854,7 +863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BX162"/>
+  <dimension ref="A1:BX165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4220,6 +4229,21 @@
         <v>0.9608408010485853</v>
       </c>
     </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
